--- a/public/download/sample/users_sample_file.xlsx
+++ b/public/download/sample/users_sample_file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -40,6 +40,9 @@
     <t>faijul</t>
   </si>
   <si>
+    <t>01935593311</t>
+  </si>
+  <si>
     <t>faijul@gmail.com</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>forhad</t>
   </si>
   <si>
+    <t>01935591837</t>
+  </si>
+  <si>
     <t>forhad@gmail.com</t>
   </si>
   <si>
@@ -61,7 +67,217 @@
     <t>joynal</t>
   </si>
   <si>
+    <t>01935591912</t>
+  </si>
+  <si>
     <t>joynal@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Golam Mostufa</t>
+  </si>
+  <si>
+    <t>01935591856</t>
+  </si>
+  <si>
+    <t>md.golammostufa@gmail.com</t>
+  </si>
+  <si>
+    <t>Nazmul Ahmed</t>
+  </si>
+  <si>
+    <t>01935592000</t>
+  </si>
+  <si>
+    <t>nazmulahmed@gmail.com</t>
+  </si>
+  <si>
+    <t>Porosh</t>
+  </si>
+  <si>
+    <t>01935591796</t>
+  </si>
+  <si>
+    <t>porosh@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Anik Hasan</t>
+  </si>
+  <si>
+    <t>01935591917</t>
+  </si>
+  <si>
+    <t>md.anikhasan@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Siyam Hossain</t>
+  </si>
+  <si>
+    <t>01935591855</t>
+  </si>
+  <si>
+    <t>md.siyamhossain@gmail.com</t>
+  </si>
+  <si>
+    <t>Habibur Rahman</t>
+  </si>
+  <si>
+    <t>01935592053</t>
+  </si>
+  <si>
+    <t>habiburrahman@gmail.com</t>
+  </si>
+  <si>
+    <t>Mizan</t>
+  </si>
+  <si>
+    <t>01935591915</t>
+  </si>
+  <si>
+    <t>mizan@gmail.com</t>
+  </si>
+  <si>
+    <t>Rakib Mia</t>
+  </si>
+  <si>
+    <t>01935593313</t>
+  </si>
+  <si>
+    <t>rakibmia@gmail.com</t>
+  </si>
+  <si>
+    <t>Abdullah Al Alam</t>
+  </si>
+  <si>
+    <t>01935591816</t>
+  </si>
+  <si>
+    <t>abdullahalalam@gmail.com</t>
+  </si>
+  <si>
+    <t>Shakil</t>
+  </si>
+  <si>
+    <t>01935591916</t>
+  </si>
+  <si>
+    <t>shakil@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Jubayed Mia</t>
+  </si>
+  <si>
+    <t>01935592484</t>
+  </si>
+  <si>
+    <t>md.jubayedmia@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Monir Hossen</t>
+  </si>
+  <si>
+    <t>01935591836</t>
+  </si>
+  <si>
+    <t>md.monirhossen@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Shahin mia</t>
+  </si>
+  <si>
+    <t>01935591828</t>
+  </si>
+  <si>
+    <t>md.shahinmia@gmail.com</t>
+  </si>
+  <si>
+    <t>Ashiqur Rahman</t>
+  </si>
+  <si>
+    <t>01935592119</t>
+  </si>
+  <si>
+    <t>ashiqurrahman@gmail.com</t>
+  </si>
+  <si>
+    <t>Safiqul Islam</t>
+  </si>
+  <si>
+    <t>01935593312</t>
+  </si>
+  <si>
+    <t>safiqulislam@gmail.com</t>
+  </si>
+  <si>
+    <t>Saddam</t>
+  </si>
+  <si>
+    <t>01935591829</t>
+  </si>
+  <si>
+    <t>saddam@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Bayazid</t>
+  </si>
+  <si>
+    <t>01935591914</t>
+  </si>
+  <si>
+    <t>md.bayazid@gmail.com</t>
+  </si>
+  <si>
+    <t>Saikoutz zaman Raja</t>
+  </si>
+  <si>
+    <t>01935591815</t>
+  </si>
+  <si>
+    <t>saikoutzzamanraja@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Thouhul Amin</t>
+  </si>
+  <si>
+    <t>01935591797</t>
+  </si>
+  <si>
+    <t>md.thouhulamin@gmail.com</t>
+  </si>
+  <si>
+    <t>Monayam Khan</t>
+  </si>
+  <si>
+    <t>01935591918</t>
+  </si>
+  <si>
+    <t>monayamkhan@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohammd Abul Hossain</t>
+  </si>
+  <si>
+    <t>01935591999</t>
+  </si>
+  <si>
+    <t>mohammdabulhossain@gmail.com</t>
+  </si>
+  <si>
+    <t>Hridoy Mia</t>
+  </si>
+  <si>
+    <t>01935591913</t>
+  </si>
+  <si>
+    <t>hridoymia@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Hridoy Mia</t>
+  </si>
+  <si>
+    <t>01935592054</t>
+  </si>
+  <si>
+    <t>md.hridoymia@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -70,9 +286,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -91,6 +307,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -98,6 +329,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -105,8 +351,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,14 +399,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -136,9 +407,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,30 +416,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,36 +424,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,15 +438,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,31 +460,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,67 +610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,18 +628,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,55 +640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +651,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -451,6 +682,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -471,17 +713,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,26 +733,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,152 +756,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,6 +909,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,18 +1233,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.8571428571429" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8571428571429" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.1428571428571" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.4285714285714" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.5714285714286" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.57142857142857" style="2" customWidth="1"/>
     <col min="6" max="6" width="10" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="2"/>
@@ -1058,14 +1277,14 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
-        <v>1409944001</v>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2">
         <v>32133213</v>
@@ -1073,19 +1292,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1908441955</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
         <v>32133213</v>
@@ -1093,25 +1312,529 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1908441956</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2">
         <v>32133213</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>LOWER(A5)</f>
+        <v>md. golam mostufa</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" ref="B6:B27" si="0">LOWER(A6)</f>
+        <v>nazmul ahmed</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>porosh</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>md. anik hasan</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>md. siyam hossain</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>habibur rahman</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>mizan</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>rakib mia</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>abdullah al alam</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>shakil</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>md. jubayed mia</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>md. monir hossen</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>md. shahin mia</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ashiqur rahman</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>safiqul islam</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>saddam</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>md. bayazid</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>saikoutz zaman raja</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>md. thouhul amin</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>monayam khan</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>mohammd abul hossain</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>hridoy mia</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>md. hridoy mia</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" display="md.golammostufa@gmail.com"/>
+    <hyperlink ref="D6" r:id="rId2" display="nazmulahmed@gmail.com"/>
+    <hyperlink ref="D8" r:id="rId3" display="md.anikhasan@gmail.com"/>
+    <hyperlink ref="D9" r:id="rId4" display="md.siyamhossain@gmail.com"/>
+    <hyperlink ref="D10" r:id="rId5" display="habiburrahman@gmail.com"/>
+    <hyperlink ref="D12" r:id="rId6" display="rakibmia@gmail.com"/>
+    <hyperlink ref="D13" r:id="rId7" display="abdullahalalam@gmail.com"/>
+    <hyperlink ref="D15" r:id="rId8" display="md.jubayedmia@gmail.com"/>
+    <hyperlink ref="D16" r:id="rId9" display="md.monirhossen@gmail.com"/>
+    <hyperlink ref="D17" r:id="rId10" display="md.shahinmia@gmail.com"/>
+    <hyperlink ref="D18" r:id="rId11" display="ashiqurrahman@gmail.com"/>
+    <hyperlink ref="D19" r:id="rId12" display="safiqulislam@gmail.com"/>
+    <hyperlink ref="D21" r:id="rId13" display="md.bayazid@gmail.com"/>
+    <hyperlink ref="D22" r:id="rId14" display="saikoutzzamanraja@gmail.com"/>
+    <hyperlink ref="D23" r:id="rId15" display="md.thouhulamin@gmail.com"/>
+    <hyperlink ref="D24" r:id="rId16" display="monayamkhan@gmail.com"/>
+    <hyperlink ref="D25" r:id="rId17" display="mohammdabulhossain@gmail.com"/>
+    <hyperlink ref="D26" r:id="rId18" display="hridoymia@gmail.com"/>
+    <hyperlink ref="D27" r:id="rId19" display="md.hridoymia@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
